--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -585,7 +585,7 @@
         <v>10.5</v>
       </c>
       <c r="E2">
-        <v>1.118947368421053</v>
+        <v>1.12</v>
       </c>
       <c r="F2">
         <v>10.5</v>
@@ -594,7 +594,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H2">
-        <v>20.36947368421053</v>
+        <v>20.37</v>
       </c>
       <c r="I2">
         <v>0.07000000000000001</v>
@@ -603,7 +603,7 @@
         <v>0.36</v>
       </c>
       <c r="K2">
-        <v>4.745789473684209</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
         <v>9.130000000000001</v>
@@ -615,13 +615,13 @@
         <v>1.38</v>
       </c>
       <c r="O2">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P2">
-        <v>-0.06600000000000003</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.6547058823529412</v>
+        <v>0.65</v>
       </c>
       <c r="R2">
         <v>1.38</v>
@@ -659,7 +659,7 @@
         <v>18.46</v>
       </c>
       <c r="G3">
-        <v>9.218333333333334</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H3">
         <v>11.86</v>
@@ -683,10 +683,10 @@
         <v>3.68</v>
       </c>
       <c r="O3">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P3">
-        <v>-0.06600000000000003</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q3">
         <v>0.01</v>
@@ -727,7 +727,7 @@
         <v>17.61</v>
       </c>
       <c r="G4">
-        <v>9.218333333333334</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H4">
         <v>9.23</v>
@@ -751,10 +751,10 @@
         <v>5.28</v>
       </c>
       <c r="O4">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P4">
-        <v>-0.06600000000000003</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q4">
         <v>0.02</v>
@@ -887,7 +887,7 @@
         <v>4.9</v>
       </c>
       <c r="O6">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P6">
         <v>0.16</v>
@@ -955,7 +955,7 @@
         <v>0.72</v>
       </c>
       <c r="O7">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P7">
         <v>0.63</v>
@@ -1023,13 +1023,13 @@
         <v>1.87</v>
       </c>
       <c r="O8">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P8">
-        <v>-0.06600000000000003</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.6547058823529412</v>
+        <v>0.65</v>
       </c>
       <c r="R8">
         <v>1.87</v>
@@ -1091,13 +1091,13 @@
         <v>-2.39</v>
       </c>
       <c r="O9">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P9">
-        <v>-0.06600000000000003</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.6547058823529412</v>
+        <v>0.65</v>
       </c>
       <c r="R9">
         <v>-2.39</v>
@@ -1159,7 +1159,7 @@
         <v>-47.32</v>
       </c>
       <c r="O10">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P10">
         <v>0.29</v>
@@ -1209,7 +1209,7 @@
         <v>12.7</v>
       </c>
       <c r="I11">
-        <v>0.8461111111111111</v>
+        <v>0.85</v>
       </c>
       <c r="J11">
         <v>0.6899999999999999</v>
@@ -1277,7 +1277,7 @@
         <v>16.14</v>
       </c>
       <c r="I12">
-        <v>0.8461111111111111</v>
+        <v>0.85</v>
       </c>
       <c r="J12">
         <v>3.09</v>
@@ -1295,7 +1295,7 @@
         <v>1.08</v>
       </c>
       <c r="O12">
-        <v>1.161818181818182</v>
+        <v>1.16</v>
       </c>
       <c r="P12">
         <v>-0.2</v>
